--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/15/seed1/result_data_RandomForest.xlsx
@@ -502,13 +502,13 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-13.88909999999999</v>
+        <v>-13.84609999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.54240000000001</v>
+        <v>13.9276</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.1114</v>
+        <v>13.0108</v>
       </c>
     </row>
     <row r="6">
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.6739</v>
+        <v>-11.1705</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.0495</v>
+        <v>-11.669</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>14.2831</v>
+        <v>14.1192</v>
       </c>
     </row>
     <row r="9">
@@ -706,13 +706,13 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.5201</v>
+        <v>-11.6002</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>13.1225</v>
+        <v>12.9255</v>
       </c>
     </row>
     <row r="17">
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.77650000000001</v>
+        <v>-14.61260000000001</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>12.4699</v>
+        <v>12.2543</v>
       </c>
     </row>
     <row r="23">
